--- a/medicine/Mort/Décès_en_1953/Décès_en_1953.xlsx
+++ b/medicine/Mort/Décès_en_1953/Décès_en_1953.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1953</t>
+          <t>Décès_en_1953</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1953</t>
+          <t>Décès_en_1953</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Lucien Adrion, peintre et aquarelliste français (° 1889).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lucien Adrion, peintre et aquarelliste français (° 1889).
 Paul-Marcel Balmigère, peintre français (° 31 août 1882).
 Gustave Barrier, peintre français (° 1871).
 Madeleine Berly-Vlaminck, peintre française (° 1896).
@@ -542,9 +559,43 @@
 Jules Hervé-Mathé, peintre français (° 8 février 1868).
 Ugo Piatti, peintre italien (° 1888)
 Maurice Schwaab, compositeur, pianiste et organiste français (° 12 octobre 1888).
-Élisabeth Sonrel, peintre et illustratrice française (° 1874).
-Janvier
-1er janvier : Hank Williams, chanteur et musicien américain de musique country (° 17 septembre 1923).
+Élisabeth Sonrel, peintre et illustratrice française (° 1874).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1953</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1953</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Hank Williams, chanteur et musicien américain de musique country (° 17 septembre 1923).
 2 janvier :
 Guccio Gucci, couturier italien, fondateur de la marque Gucci (° 26 mars 1881).
 Gordon Daniel Conant, homme politique canadien (° 11 janvier 1885).
@@ -562,9 +613,43 @@
 28 janvier : Jérôme Tharaud, écrivain français (° 18 mai 1874).
 30 janvier :
 Lionel Belmore, acteur et réalisateur anglais (° 11 mai 1867).
-Stanley Logan, acteur, dialoguiste, metteur en scène et réalisateur anglais (° 12 juin 1885).
-Février
-1er février : Vsevolod Zaderatski, compositeur et pianiste russe (° 21 décembre 1891).
+Stanley Logan, acteur, dialoguiste, metteur en scène et réalisateur anglais (° 12 juin 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1953</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1953</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Vsevolod Zaderatski, compositeur et pianiste russe (° 21 décembre 1891).
 6 février : Edgar Norton, acteur britannique (° 11 août 1868).
 9 février : Cecil Hepworth, réalisateur, producteur de cinéma, acteur, directeur de la photographie et scénariste britannique (° 19 mars 1874).
 11 février : Uroš Predić, peintre réaliste serbe puis yougoslave (° 7 décembre 1857).
@@ -575,9 +660,43 @@
 18 février : France Leplat, peintre français (° 15 décembre 1895).
 20 février : Francesco Saverio Nitti, homme politique italien, président du Conseil du royaume d'Italie en 1919-1920. (° 19 juillet 1868)
 24 février : Gerd von Rundstedt, militaire allemand (° 12 décembre 1875).
-28 février : Eleazar Sukenik, archéologue israélien (° 12 août 1889).
-Mars
-3 mars : Josef Fischer, coureur cycliste allemand (° 20 janvier 1865).
+28 février : Eleazar Sukenik, archéologue israélien (° 12 août 1889).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1953</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1953</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 mars : Josef Fischer, coureur cycliste allemand (° 20 janvier 1865).
 5 mars :
 Joseph Staline (Joseph Vissarionovitch Staline), dirigeant de l'Union soviétique de 1922 à 1953 (° 21 décembre 1879).
 Sergueï Prokofiev, compositeur russe (° 23 avril 1891).
@@ -593,9 +712,43 @@
 Lucienne de Saint-Mart, peintre française (° 8 octobre 1866).
 Valentine de Saint-Point, écrivain, poète, peintre, dramaturge, critique d'art, chorégraphe, conférencière et journaliste (° 16 février 1875).
 30 mars : Alexandre Vachon, archevêque d'Ottawa (° 16 août 1885).
-31 mars : Władysław Jahl, peintre polonais (° 10 août 1886).
-Avril
-3 avril :
+31 mars : Władysław Jahl, peintre polonais (° 10 août 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1953</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1953</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3 avril :
 Algot Lönn, coureur cycliste suédois (° 18 décembre 1887).
 Jean Epstein, réalisateur français (° 25 mars 1897).
 7 avril : Marcel Berthet, coureur cycliste français (° 4 mars 1888).
@@ -606,9 +759,43 @@
 27 avril : Maud Gonne, comédienne et révolutionnaire irlandaise (° 21 décembre 1866).
 29 avril :
 Kiki de Montparnasse, modèle et artiste française (° 2 octobre 1901).
-Moïse Kisling, peintre français d'origine polonaise (° 22 janvier 1891).
-Mai
-1er mai : Yvonne Serruys, sculptrice française (° 26 mars 1873).
+Moïse Kisling, peintre français d'origine polonaise (° 22 janvier 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1953</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1953</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Yvonne Serruys, sculptrice française (° 26 mars 1873).
 3 mai : Oldřich Blažíček, peintre austro-hongrois puis tchécoslovaque (° 5 janvier 1887).
 12 mai : Fritz Mackensen, peintre allemand (° 8 avril 1866).
 14 mai :
@@ -622,9 +809,43 @@
 20 mai : Werner Jaegerhuber, musicien, compositeur, ethnographe et professeur de musique haïtien (° 17 mars 1900).
 26 mai : Marcel Bloch,  peintre et sculpteur français (° 11 juillet 1884).
 30 mai : Dooley Wilson, acteur, chanteur et batteur de jazz américain (° 3 avril 1886).
-31 mai : Vladimir Tatline, peintre et sculpteur constructiviste russe puis soviétique (° 12 décembre 1885).
-Juin
-3 juin :
+31 mai : Vladimir Tatline, peintre et sculpteur constructiviste russe puis soviétique (° 12 décembre 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1953</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1953</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3 juin :
 Hector Plancquaert, homme politique belge (° 21 décembre 1863).
 Pierre-Paul Ulmer, résistant français et compagnon de la libération (° 29 août 1911).
 4 juin : Mary Alice Willcox, zoologiste américaine (° 24 avril 1856).
@@ -636,7 +857,7 @@
 Marcel Poncin, acteur, peintre et dessinateur français (° 27 août 1890).
 9 juin : Claire Heliot, dompteuse allemande (° 9 février 1866).
 15 juin : Muhammad Loutfi Goumah, écrivain égyptien (° 18 janvier 1886).
-16 juin : Margaret Bondfield, première femme ministre au Royaume-Uni[1] (° 17 mars 1873).
+16 juin : Margaret Bondfield, première femme ministre au Royaume-Uni (° 17 mars 1873).
 19 juin : Ethel et Julius Rosenberg, espions (?) américains condamnés à mort (elle ° 28 septembre 1915, lui ° 12 mai 1918).
 20 juin : Henri De Man, homme politique belge (° 17 novembre 1885).
 23 juin : Albert Gleizes, peintre, dessinateur, graveur, philosophe et théoricien français (° 8 décembre 1881).
@@ -645,9 +866,43 @@
 30 juin :
 Ivor Barnard, acteur anglais (° 13 juin 1887).
 Dirk van Haaren, peintre néerlandais (° 21 avril 1878).
-Vsevolod Poudovkine, réalisateur soviétique (° 28 février 1893).
-Juillet
-2 juillet : Ho Kŏ-i, homme politique nord-coréen (° 18 mars 1908).
+Vsevolod Poudovkine, réalisateur soviétique (° 28 février 1893).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1953</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1953</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 juillet : Ho Kŏ-i, homme politique nord-coréen (° 18 mars 1908).
 3 juillet :
 Gordon Campbell, vice-amiral et homme politique britannique (° 6 janvier 1886).
 Gaston Rebry, coureur cycliste belge (° 26 janvier 1905).
@@ -657,9 +912,43 @@
 16 juillet :
 Louis Cattiaux, peintre et poète français (° 17 août 1904).
 Henri de Maistre, peintre français (° 14 avril 1891).
-17 juillet : Bernhard van den Sigtenhorst Meyer, compositeur et musicologue néerlandais (° 17 juin 1888).
-Août
-4 août :
+17 juillet : Bernhard van den Sigtenhorst Meyer, compositeur et musicologue néerlandais (° 17 juin 1888).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1953</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1953</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4 août :
 Claud O'Donnell, joueur de rugby australien (° 30 janvier 1886).
 Francisc Șirato, peintre et graphiste roumain (° 15 août 1877).
 6 août : Houseley Stevenson, acteur américain d'origine anglaise (° 30 juillet 1879).
@@ -673,9 +962,43 @@
 27 août : Atanasio Soldati, peintre italien (° 24 août 1896).
 29 août : Mary Ann Hutton, écrivaine de langue irlandaise (° 1862)
 30 août : Dimitar Nenov, architecte et compositeur bulgare (° 19 décembre 1901).
-31 août : Paul Bellemain, architecte français (° 5 janvier 1886).
-Septembre
-1er septembre :
+31 août : Paul Bellemain, architecte français (° 5 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1953</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1953</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre :
 René Herbin, compositeur et pianiste français (° 1911).
 Jacques Thibaud, violoniste français (° 27 septembre 1880).
 2 septembre : George Stewart Henry, premier ministre de l'Ontario (° 16 juillet 1871).
@@ -687,9 +1010,43 @@
 28 septembre :
 Edwin Hubble, astrophysicien américain (° 20 novembre 1889).
 Florent Méreau, peintre français (° 13 avril 1892).
-29 septembre : Bronisława Janowska, peintre réaliste et éditrice polonaise (° 13 juillet 1868).
-Octobre
-3 octobre : Arnold Bax, compositeur anglais (° 8 novembre 1883).
+29 septembre : Bronisława Janowska, peintre réaliste et éditrice polonaise (° 13 juillet 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1953</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1953</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3 octobre : Arnold Bax, compositeur anglais (° 8 novembre 1883).
 6 octobre : Amin Ali Nasser ad-Din, journaliste, romancier libanais (° 25 janvier 1876).
 7 octobre :
 Émile Bouhours, coureur cycliste français (° 3 juin 1870).
@@ -702,9 +1059,43 @@
 20 octobre : Adolphe Grimault, peintre français (° 3 juin 1874).
 24 octobre : Liavon Rydlewski, indépendantiste biélorusse (° 14 octobre 1903).
 27 octobre : Eduard Künneke, compositeur allemand d'opéras, d'opérettes et de musique pour le théâtre  (° 25 janvier 1885).
-28 octobre : Hisato Ōzawa, compositeur japonais  (° 1er août 1907).
-Novembre
-2 novembre :
+28 octobre : Hisato Ōzawa, compositeur japonais  (° 1er août 1907).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1953</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1953</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2 novembre :
 Lester Horton, danseur, chorégraphe et pédagogue américain (° 23 janvier 1906).
 Léon Lehmann, peintre français (° 14 janvier 1873).
 4 novembre :
@@ -724,9 +1115,43 @@
 29 novembre :
 Karl Arnold, dessinateur, caricaturiste et peintre allemand (° 1er avril 1883).
 Sam De Grasse, acteur canadien (° (12 juin 1875).
-30 novembre : Francis Picabia, peintre et écrivain français (° 22 janvier 1879).
-Décembre
-4 décembre : Daniel Gregory Mason, compositeur, critique musical et musicologue américain (° 20 novembre 1873).
+30 novembre : Francis Picabia, peintre et écrivain français (° 22 janvier 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1953</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1953</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>4 décembre : Daniel Gregory Mason, compositeur, critique musical et musicologue américain (° 20 novembre 1873).
 5 décembre : Maria Pascoli, écrivaine italienne (° 1er novembre 1865).
 6 décembre : Robert Godding, homme politique belge (° 8 novembre 1883).
 7 décembre : Bertram Grassby, acteur anglais (° 23 décembre 1880).
